--- a/Team2TM.xlsx
+++ b/Team2TM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soluk\PycharmProjects\NSTstats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C77E6E-DE8C-40D2-AF11-BC389AF61051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F0B038-B0EB-4F3D-B48F-08C3AAD93092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11235" xr2:uid="{658D4BAB-4323-490C-8346-87B579F290A8}"/>
   </bookViews>
@@ -332,9 +332,6 @@
     <t>Washington Capitals</t>
   </si>
   <si>
-    <t>NST</t>
-  </si>
-  <si>
     <t>L.A</t>
   </si>
   <si>
@@ -357,6 +354,9 @@
   </si>
   <si>
     <t>Utah Mammoth</t>
+  </si>
+  <si>
+    <t>TM</t>
   </si>
 </sst>
 </file>
@@ -417,10 +417,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -524,7 +523,7 @@
     <sortCondition ref="C1:C33"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="7" xr3:uid="{018D70E0-EFFE-4250-878A-8E0E49322432}" name="NST" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{018D70E0-EFFE-4250-878A-8E0E49322432}" name="TM" dataDxfId="5"/>
     <tableColumn id="1" xr3:uid="{BCE4A142-CCD0-4619-8B19-516D39620180}" name="City" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{A23BE27A-93FF-436D-A1E2-A95C77F61A06}" name="HR" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{28159C8A-94F4-4007-9B5B-CD00C4ECE0BA}" name="Club" dataDxfId="2"/>
@@ -855,7 +854,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -867,662 +866,662 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" t="s">
+        <v>81</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="E29" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="F29" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>84</v>
-      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" t="s">
         <v>86</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" t="s">
         <v>87</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" t="s">
         <v>86</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>88</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" t="s">
         <v>89</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" t="s">
         <v>90</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" t="s">
         <v>91</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="2" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>93</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>92</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" t="s">
         <v>93</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" t="s">
         <v>94</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" t="s">
         <v>93</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="2" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>96</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
         <v>95</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" t="s">
         <v>96</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" t="s">
         <v>97</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" t="s">
         <v>96</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="2" t="s">
         <v>96</v>
       </c>
     </row>
